--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_simple_de.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_simple_de.xlsx
@@ -1130,20 +1130,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1155,6 +1141,13 @@
     <xf numFmtId="1" fontId="31" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1174,6 +1167,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1615,10 +1615,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
@@ -1695,32 +1695,32 @@
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="31" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="29" t="s">
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="36" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1734,10 +1734,10 @@
       <c r="C10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="25" t="s">
         <v>1</v>
       </c>
@@ -1747,8 +1747,8 @@
       <c r="J10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="39"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
@@ -2804,8 +2804,7 @@
       <c r="J86" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C1:F1"/>
+  <mergeCells count="8">
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="K9:K10"/>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_simple_de.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_simple_de.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Produktname</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Tag</t>
   </si>
@@ -36,15 +33,6 @@
   <si>
     <t>relevanter Zeitraum
 des Verkaufs:</t>
-  </si>
-  <si>
-    <t>Anliefertag</t>
-  </si>
-  <si>
-    <t>MHD</t>
-  </si>
-  <si>
-    <t>Chargen-nummer</t>
   </si>
   <si>
     <t>Kommentar</t>
@@ -68,10 +56,6 @@
     <t>Sollte der Empfänger der Endverbraucher oder der Endverkäufer des Produktes sein, bitte im Kommentarfeld vermerken</t>
   </si>
   <si>
-    <t>versendete Menge
-(z.B. 4 Kartons a 10kg)</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -84,12 +68,37 @@
     <t>Adresse
 (Straße Hausnummer, PLZ Ort)</t>
   </si>
+  <si>
+    <t>Lotinformation</t>
+  </si>
+  <si>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>Chargennummer</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Lieferung</t>
+  </si>
+  <si>
+    <t>MHD oder Verbrauchsdatum</t>
+  </si>
+  <si>
+    <t>abgegebene Menge
+(z.B. 4 Kartons a 10kg)</t>
+  </si>
+  <si>
+    <t>Lieferdatum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,22 +312,6 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
       <b/>
@@ -723,17 +716,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -918,6 +900,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1035,9 +1028,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1045,49 +1038,49 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1113,67 +1106,63 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="32" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="32" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1601,7 +1590,7 @@
     <col min="3" max="3" width="20.1328125" style="7" customWidth="1"/>
     <col min="4" max="4" width="19.19921875" style="7" customWidth="1"/>
     <col min="5" max="5" width="12" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" style="7" customWidth="1"/>
     <col min="7" max="7" width="11.1328125" style="22" customWidth="1"/>
     <col min="8" max="8" width="10.59765625" style="22" customWidth="1"/>
     <col min="9" max="9" width="11.19921875" style="22" customWidth="1"/>
@@ -1612,23 +1601,23 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:12" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -1639,7 +1628,7 @@
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="24"/>
@@ -1654,7 +1643,7 @@
     </row>
     <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="10"/>
@@ -1665,7 +1654,7 @@
     </row>
     <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="10"/>
@@ -1676,7 +1665,7 @@
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="10"/>
@@ -1695,74 +1684,80 @@
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="41"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="34.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="25" t="s">
+      <c r="I11" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="J11" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="37"/>
-    </row>
-    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="19"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
@@ -1772,9 +1767,9 @@
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="1"/>
       <c r="L12" s="19"/>
     </row>
@@ -1786,9 +1781,9 @@
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
       <c r="K13" s="1"/>
       <c r="L13" s="19"/>
     </row>
@@ -1800,9 +1795,9 @@
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="1"/>
       <c r="L14" s="19"/>
     </row>
@@ -1814,9 +1809,9 @@
       <c r="E15" s="3"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
       <c r="K15" s="1"/>
       <c r="L15" s="19"/>
     </row>
@@ -1828,9 +1823,9 @@
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="1"/>
       <c r="L16" s="19"/>
     </row>
@@ -1842,9 +1837,9 @@
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="1"/>
       <c r="L17" s="19"/>
     </row>
@@ -1856,9 +1851,9 @@
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
       <c r="K18" s="1"/>
       <c r="L18" s="19"/>
     </row>
@@ -1870,9 +1865,9 @@
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="1"/>
       <c r="L19" s="19"/>
     </row>
@@ -1884,9 +1879,9 @@
       <c r="E20" s="3"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
       <c r="K20" s="1"/>
       <c r="L20" s="19"/>
     </row>
@@ -1898,9 +1893,9 @@
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="1"/>
       <c r="L21" s="19"/>
     </row>
@@ -1912,9 +1907,9 @@
       <c r="E22" s="3"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
       <c r="K22" s="1"/>
       <c r="L22" s="19"/>
     </row>
@@ -1926,9 +1921,9 @@
       <c r="E23" s="3"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
       <c r="K23" s="1"/>
       <c r="L23" s="19"/>
     </row>
@@ -1940,9 +1935,9 @@
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
       <c r="K24" s="1"/>
       <c r="L24" s="19"/>
     </row>
@@ -1954,9 +1949,9 @@
       <c r="E25" s="3"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
       <c r="K25" s="1"/>
       <c r="L25" s="19"/>
     </row>
@@ -1968,9 +1963,9 @@
       <c r="E26" s="3"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
       <c r="K26" s="1"/>
       <c r="L26" s="19"/>
     </row>
@@ -1982,9 +1977,9 @@
       <c r="E27" s="3"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
       <c r="K27" s="1"/>
       <c r="L27" s="19"/>
     </row>
@@ -1996,9 +1991,9 @@
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
       <c r="K28" s="1"/>
       <c r="L28" s="19"/>
     </row>
@@ -2010,9 +2005,9 @@
       <c r="E29" s="3"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
       <c r="K29" s="1"/>
       <c r="L29" s="19"/>
     </row>
@@ -2024,9 +2019,9 @@
       <c r="E30" s="3"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
       <c r="K30" s="1"/>
       <c r="L30" s="19"/>
     </row>
@@ -2038,9 +2033,9 @@
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
       <c r="K31" s="1"/>
       <c r="L31" s="19"/>
     </row>
@@ -2052,9 +2047,9 @@
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
       <c r="K32" s="1"/>
       <c r="L32" s="19"/>
     </row>
@@ -2066,9 +2061,9 @@
       <c r="E33" s="3"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
       <c r="K33" s="1"/>
       <c r="L33" s="19"/>
     </row>
@@ -2080,9 +2075,9 @@
       <c r="E34" s="3"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
       <c r="K34" s="1"/>
       <c r="L34" s="19"/>
     </row>
@@ -2094,9 +2089,9 @@
       <c r="E35" s="3"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
       <c r="K35" s="1"/>
       <c r="L35" s="19"/>
     </row>
@@ -2108,9 +2103,9 @@
       <c r="E36" s="3"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
       <c r="K36" s="1"/>
       <c r="L36" s="19"/>
     </row>
@@ -2122,9 +2117,9 @@
       <c r="E37" s="3"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
       <c r="K37" s="1"/>
       <c r="L37" s="19"/>
     </row>
@@ -2136,9 +2131,9 @@
       <c r="E38" s="3"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
       <c r="K38" s="1"/>
       <c r="L38" s="19"/>
     </row>
@@ -2150,9 +2145,9 @@
       <c r="E39" s="3"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
       <c r="K39" s="1"/>
       <c r="L39" s="19"/>
     </row>
@@ -2164,9 +2159,9 @@
       <c r="E40" s="3"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
       <c r="K40" s="1"/>
       <c r="L40" s="19"/>
     </row>
@@ -2178,9 +2173,9 @@
       <c r="E41" s="3"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
       <c r="K41" s="1"/>
       <c r="L41" s="19"/>
     </row>
@@ -2192,9 +2187,9 @@
       <c r="E42" s="3"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
       <c r="K42" s="1"/>
       <c r="L42" s="19"/>
     </row>
@@ -2206,9 +2201,9 @@
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
       <c r="K43" s="1"/>
       <c r="L43" s="19"/>
     </row>
@@ -2220,9 +2215,9 @@
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
       <c r="K44" s="1"/>
       <c r="L44" s="19"/>
     </row>
@@ -2234,9 +2229,9 @@
       <c r="E45" s="3"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
       <c r="K45" s="1"/>
       <c r="L45" s="19"/>
     </row>
@@ -2248,9 +2243,9 @@
       <c r="E46" s="3"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
       <c r="K46" s="1"/>
       <c r="L46" s="19"/>
     </row>
@@ -2262,9 +2257,9 @@
       <c r="E47" s="3"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
       <c r="K47" s="1"/>
       <c r="L47" s="19"/>
     </row>
@@ -2276,9 +2271,9 @@
       <c r="E48" s="3"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
       <c r="K48" s="1"/>
       <c r="L48" s="19"/>
     </row>
@@ -2290,9 +2285,9 @@
       <c r="E49" s="3"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
       <c r="K49" s="1"/>
       <c r="L49" s="19"/>
     </row>
@@ -2304,9 +2299,9 @@
       <c r="E50" s="3"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
       <c r="K50" s="1"/>
       <c r="L50" s="19"/>
     </row>
@@ -2318,9 +2313,9 @@
       <c r="E51" s="3"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
       <c r="K51" s="1"/>
       <c r="L51" s="19"/>
     </row>
@@ -2332,9 +2327,9 @@
       <c r="E52" s="3"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
       <c r="K52" s="1"/>
       <c r="L52" s="19"/>
     </row>
@@ -2346,9 +2341,9 @@
       <c r="E53" s="3"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
       <c r="K53" s="1"/>
       <c r="L53" s="19"/>
     </row>
@@ -2360,9 +2355,9 @@
       <c r="E54" s="3"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
       <c r="K54" s="1"/>
       <c r="L54" s="19"/>
     </row>
@@ -2374,9 +2369,9 @@
       <c r="E55" s="3"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
       <c r="K55" s="1"/>
       <c r="L55" s="19"/>
     </row>
@@ -2388,9 +2383,9 @@
       <c r="E56" s="3"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
       <c r="K56" s="1"/>
       <c r="L56" s="19"/>
     </row>
@@ -2402,9 +2397,9 @@
       <c r="E57" s="3"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
       <c r="K57" s="1"/>
       <c r="L57" s="19"/>
     </row>
@@ -2416,9 +2411,9 @@
       <c r="E58" s="3"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
       <c r="K58" s="1"/>
       <c r="L58" s="19"/>
     </row>
@@ -2430,9 +2425,9 @@
       <c r="E59" s="3"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
       <c r="K59" s="1"/>
       <c r="L59" s="19"/>
     </row>
@@ -2444,9 +2439,9 @@
       <c r="E60" s="3"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
       <c r="K60" s="1"/>
       <c r="L60" s="19"/>
     </row>
@@ -2458,9 +2453,9 @@
       <c r="E61" s="3"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
       <c r="K61" s="1"/>
       <c r="L61" s="19"/>
     </row>
@@ -2472,9 +2467,9 @@
       <c r="E62" s="3"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
       <c r="K62" s="1"/>
       <c r="L62" s="19"/>
     </row>
@@ -2486,9 +2481,9 @@
       <c r="E63" s="3"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
       <c r="K63" s="1"/>
       <c r="L63" s="19"/>
     </row>
@@ -2500,9 +2495,9 @@
       <c r="E64" s="3"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
       <c r="K64" s="1"/>
       <c r="L64" s="19"/>
     </row>
@@ -2514,9 +2509,9 @@
       <c r="E65" s="3"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
       <c r="K65" s="1"/>
       <c r="L65" s="19"/>
     </row>
@@ -2528,9 +2523,9 @@
       <c r="E66" s="3"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
       <c r="K66" s="1"/>
       <c r="L66" s="19"/>
     </row>
@@ -2542,9 +2537,9 @@
       <c r="E67" s="3"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
       <c r="K67" s="1"/>
       <c r="L67" s="19"/>
     </row>
@@ -2556,9 +2551,9 @@
       <c r="E68" s="3"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
       <c r="K68" s="1"/>
       <c r="L68" s="19"/>
     </row>
@@ -2570,9 +2565,9 @@
       <c r="E69" s="3"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
       <c r="K69" s="1"/>
       <c r="L69" s="19"/>
     </row>
@@ -2584,9 +2579,9 @@
       <c r="E70" s="3"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
       <c r="K70" s="1"/>
       <c r="L70" s="19"/>
     </row>
@@ -2598,9 +2593,9 @@
       <c r="E71" s="3"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
       <c r="K71" s="1"/>
       <c r="L71" s="19"/>
     </row>
@@ -2612,9 +2607,9 @@
       <c r="E72" s="3"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
       <c r="K72" s="1"/>
       <c r="L72" s="19"/>
     </row>
@@ -2626,9 +2621,9 @@
       <c r="E73" s="3"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
       <c r="K73" s="1"/>
       <c r="L73" s="19"/>
     </row>
@@ -2640,9 +2635,9 @@
       <c r="E74" s="3"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
       <c r="K74" s="1"/>
       <c r="L74" s="19"/>
     </row>
@@ -2654,9 +2649,9 @@
       <c r="E75" s="3"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
       <c r="K75" s="1"/>
       <c r="L75" s="19"/>
     </row>
@@ -2668,9 +2663,9 @@
       <c r="E76" s="3"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
       <c r="K76" s="1"/>
       <c r="L76" s="19"/>
     </row>
@@ -2682,9 +2677,9 @@
       <c r="E77" s="3"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
       <c r="K77" s="1"/>
       <c r="L77" s="19"/>
     </row>
@@ -2696,9 +2691,9 @@
       <c r="E78" s="3"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
       <c r="K78" s="1"/>
       <c r="L78" s="19"/>
     </row>
@@ -2710,9 +2705,9 @@
       <c r="E79" s="3"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
       <c r="K79" s="1"/>
       <c r="L79" s="19"/>
     </row>
@@ -2724,9 +2719,9 @@
       <c r="E80" s="3"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
       <c r="K80" s="1"/>
       <c r="L80" s="19"/>
     </row>
@@ -2738,9 +2733,9 @@
       <c r="E81" s="3"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
       <c r="K81" s="1"/>
       <c r="L81" s="19"/>
     </row>
@@ -2752,9 +2747,9 @@
       <c r="E82" s="3"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
       <c r="K82" s="1"/>
       <c r="L82" s="19"/>
     </row>
@@ -2766,9 +2761,9 @@
       <c r="E83" s="3"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
       <c r="K83" s="1"/>
       <c r="L83" s="19"/>
     </row>
@@ -2780,9 +2775,9 @@
       <c r="E84" s="3"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
       <c r="K84" s="1"/>
       <c r="L84" s="19"/>
     </row>
@@ -2794,9 +2789,9 @@
       <c r="E85" s="4"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
       <c r="K85" s="2"/>
       <c r="L85" s="20"/>
     </row>
@@ -2804,15 +2799,21 @@
       <c r="J86" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
+  <mergeCells count="14">
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_simple_de.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_simple_de.xlsx
@@ -1122,11 +1122,33 @@
     <xf numFmtId="1" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="31" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1141,28 +1163,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1684,69 +1684,69 @@
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="35" t="s">
+      <c r="E9" s="43"/>
+      <c r="F9" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37" t="s">
+      <c r="G9" s="43"/>
+      <c r="H9" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40" t="s">
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="42" t="s">
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="41"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="29" t="s">
         <v>0</v>
       </c>
@@ -1756,8 +1756,8 @@
       <c r="J11" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="31"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
@@ -2800,6 +2800,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="L9:L11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
@@ -2807,14 +2814,21 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+      <formula1>1</formula1>
+      <formula2>31</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+      <formula1>1</formula1>
+      <formula2>12</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+      <formula1>1900</formula1>
+      <formula2>2100</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
